--- a/URS/DbLayouts/L4-批次作業/EmpDeductMedia.xlsx
+++ b/URS/DbLayouts/L4-批次作業/EmpDeductMedia.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6125B5EE-6ADB-4111-94EC-4EC25469AAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="媒體檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="152">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -146,14 +145,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MediaDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>媒體別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>交易金額(實扣金額)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -208,18 +199,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>receiveCheckFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:ACH新光
-2:ACH他行
-3:郵局
-4:15日
-5:非15日</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>MediaDate,MediaKind,MediaSeq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -232,10 +211,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MediaKind</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">MediaDate &gt;= , AND MediaDate &lt;= , AND MediaKind = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -284,9 +259,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PerfRepayCode</t>
-  </si>
-  <si>
     <t>扣款代碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -315,18 +287,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">AcDate = ,AND PerfMonth = ,AND FlowCode = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate,PerfMonth,FlowCode</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>KeyID</t>
-  </si>
-  <si>
-    <t>16:扣款失敗17:扣款不足…..</t>
   </si>
   <si>
     <t xml:space="preserve">MediaKind = ,AND CustNo = ,AND EntryDate = ,AND RepayCode = ,AND RepayAmt = </t>
@@ -711,28 +676,82 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:RepayType
-1.期款
-2.部分償還
-3.結案
-4.帳管費
-5.火險費
-6.契變手續費
-7.法務費
-9.其他
-11.債協匯入款(虛擬帳號為9510500NNNNNNN)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CdCode:PerfRepayCode
 1:扣薪件;2:特約件;3:滯繳件;4:人事特約件;5:房貸扣薪件</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:15日
+5:非15日</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒體別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveCheckFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND PerfMonth = ,AND FlowCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaKind</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MediaDate = ,AND MediaKind = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaSeq ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaSeq DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金科目/000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:RepayType
+1.期款
+5.火險費</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaDate DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:扣款成功 16:扣款失敗 17:扣款不足…..</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>有回應檔均會更新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastMediaSeqFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfRepayCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16">
     <font>
       <sz val="12"/>
@@ -1025,6 +1044,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1039,14 +1061,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1137,23 +1156,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1189,23 +1191,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1381,11 +1366,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G18:G19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1400,25 +1385,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1428,12 +1413,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1443,10 +1428,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1454,12 +1439,12 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1467,12 +1452,12 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1480,12 +1465,12 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1520,13 +1505,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="23">
         <v>8</v>
@@ -1534,15 +1519,15 @@
       <c r="F9" s="16"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="81">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="32.4">
       <c r="A10" s="19">
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>29</v>
@@ -1552,7 +1537,7 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="24" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="15" customFormat="1">
@@ -1560,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>33</v>
@@ -1579,10 +1564,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>28</v>
@@ -1592,15 +1577,15 @@
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" ht="162">
+    <row r="13" spans="1:7" ht="48.6">
       <c r="A13" s="19">
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>28</v>
@@ -1609,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4">
@@ -1617,10 +1602,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>28</v>
@@ -1628,8 +1613,8 @@
       <c r="E14" s="23">
         <v>1</v>
       </c>
-      <c r="G14" s="36" t="s">
-        <v>144</v>
+      <c r="G14" s="31" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1640,7 +1625,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>30</v>
@@ -1655,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>24</v>
@@ -1673,10 +1658,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>29</v>
@@ -1691,10 +1676,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>29</v>
@@ -1709,7 +1694,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>25</v>
@@ -1727,13 +1712,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="23">
         <v>8</v>
@@ -1748,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>30</v>
@@ -1763,7 +1748,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>26</v>
@@ -1775,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1794,32 +1779,36 @@
       <c r="E23" s="19">
         <v>3</v>
       </c>
-      <c r="G23" s="22"/>
+      <c r="G23" s="22" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="19">
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24" s="23">
         <v>8</v>
       </c>
-      <c r="G24" s="22"/>
+      <c r="G24" s="22" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="19">
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>22</v>
@@ -1855,13 +1844,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="24"/>
@@ -1871,13 +1860,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E28" s="23">
         <v>6</v>
@@ -1889,13 +1878,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E29" s="23"/>
       <c r="G29" s="24"/>
@@ -1905,13 +1894,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E30" s="23">
         <v>6</v>
@@ -1935,12 +1924,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1964,40 +1953,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2008,7 +2011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB82B01-2B9F-42D5-B560-7F7F3937C0BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2036,75 +2039,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="J1" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
+      <c r="A1" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="J1" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="26" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2112,13 +2115,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E3" s="26">
         <v>7</v>
@@ -2130,19 +2133,19 @@
         <v>7</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J3" s="26">
         <v>1</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N3" s="26">
         <v>7</v>
@@ -2154,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2162,13 +2165,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E4" s="26">
         <v>6</v>
@@ -2182,19 +2185,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J4" s="26">
         <v>2</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N4" s="26">
         <v>6</v>
@@ -2208,7 +2211,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="32.4">
@@ -2216,13 +2219,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E5" s="26">
         <v>10</v>
@@ -2236,19 +2239,19 @@
         <v>23</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J5" s="26">
         <v>3</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N5" s="26">
         <v>10</v>
@@ -2262,7 +2265,7 @@
         <v>23</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2272,13 +2275,13 @@
         <v>4</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N6" s="26">
         <v>2</v>
@@ -2292,7 +2295,7 @@
         <v>25</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2300,13 +2303,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E7" s="26">
         <v>10</v>
@@ -2324,13 +2327,13 @@
         <v>5</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L7" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N7" s="26">
         <v>10</v>
@@ -2350,13 +2353,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E8" s="26">
         <v>11</v>
@@ -2370,19 +2373,19 @@
         <v>44</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J8" s="26">
         <v>6</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N8" s="26">
         <v>2</v>
@@ -2396,7 +2399,7 @@
         <v>37</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2404,13 +2407,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E9" s="26">
         <v>11</v>
@@ -2424,19 +2427,19 @@
         <v>55</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J9" s="26">
         <v>7</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N9" s="26">
         <v>7</v>
@@ -2450,7 +2453,7 @@
         <v>44</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2460,13 +2463,13 @@
         <v>8</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N10" s="26">
         <v>15</v>
@@ -2486,13 +2489,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E11" s="26">
         <v>10</v>
@@ -2512,13 +2515,13 @@
         <v>9</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N11" s="26">
         <v>10</v>
@@ -2540,13 +2543,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E12" s="26">
         <v>40</v>
@@ -2560,19 +2563,19 @@
         <v>105</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J12" s="26">
         <v>10</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M12" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N12" s="26">
         <v>40</v>
@@ -2592,13 +2595,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
@@ -2612,19 +2615,19 @@
         <v>106</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J13" s="26">
         <v>11</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N13" s="26">
         <v>1</v>
@@ -2638,7 +2641,7 @@
         <v>110</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2648,13 +2651,13 @@
         <v>12</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N14" s="26">
         <v>14</v>
@@ -2668,7 +2671,7 @@
         <v>124</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2678,13 +2681,13 @@
         <v>13</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N15" s="26">
         <v>10</v>
@@ -2706,13 +2709,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E16" s="26">
         <v>8</v>
@@ -2726,19 +2729,19 @@
         <v>114</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J16" s="26">
         <v>14</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N16" s="26">
         <v>8</v>
@@ -2752,7 +2755,7 @@
         <v>142</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2760,13 +2763,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E17" s="26">
         <v>6</v>
@@ -2780,19 +2783,19 @@
         <v>120</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J17" s="26">
         <v>15</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N17" s="26">
         <v>6</v>
@@ -2806,7 +2809,7 @@
         <v>148</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2814,13 +2817,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E18" s="26">
         <v>1</v>
@@ -2838,13 +2841,13 @@
         <v>16</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N18" s="26">
         <v>1</v>
@@ -2864,13 +2867,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E19" s="26">
         <v>1</v>
@@ -2888,13 +2891,13 @@
         <v>17</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N19" s="26">
         <v>1</v>
@@ -2914,13 +2917,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E20" s="26">
         <v>7</v>
@@ -2938,13 +2941,13 @@
         <v>18</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N20" s="26">
         <v>7</v>
@@ -2964,13 +2967,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E21" s="26">
         <v>3</v>
@@ -2988,13 +2991,13 @@
         <v>19</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L21" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N21" s="26">
         <v>3</v>
@@ -3014,13 +3017,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E22" s="26">
         <v>42</v>
@@ -3034,19 +3037,19 @@
         <v>174</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J22" s="26">
         <v>20</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N22" s="26">
         <v>42</v>
